--- a/Outputs/Master_file_unbanked.xlsx
+++ b/Outputs/Master_file_unbanked.xlsx
@@ -10,12 +10,19 @@
     <sheet name="Introduction" r:id="rId4" sheetId="2"/>
     <sheet name="absentmembers" r:id="rId5" sheetId="3"/>
     <sheet name="Group Operations" r:id="rId6" sheetId="4"/>
+    <sheet name="FINANCIAL LITERACY TRAINING" r:id="rId7" sheetId="5"/>
+    <sheet name="NGO_FACILITATOR" r:id="rId8" sheetId="6"/>
+    <sheet name="Bank account" r:id="rId9" sheetId="7"/>
+    <sheet name="Group Membership" r:id="rId10" sheetId="8"/>
+    <sheet name="Individual Bank Account" r:id="rId11" sheetId="9"/>
+    <sheet name="Security_Fraud" r:id="rId12" sheetId="10"/>
+    <sheet name="Expectations" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3577" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4047" uniqueCount="1093">
   <si>
     <t>Bank</t>
   </si>
@@ -3045,6 +3052,297 @@
   </si>
   <si>
     <t>B-21:Who_calculates</t>
+  </si>
+  <si>
+    <t>C-3  Security why se inancial ervices (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Accessing inancial ervices (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Opening  ank ccount (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Depositing oney t  ank (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Transferring oney aking ayments o omeone (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Withdrawing ash rom ank (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Viewing our ccount alance (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Banking osts (Count)</t>
+  </si>
+  <si>
+    <t>C-3  A ixed erm ccount (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Credit ank oans0 (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Bank gents1 (Count)</t>
+  </si>
+  <si>
+    <t>C-3  Other specify  (Count)</t>
+  </si>
+  <si>
+    <t>C-3  General omments specify  (Count)</t>
+  </si>
+  <si>
+    <t>Security..why.use.financial.services_A_Q_53_1</t>
+  </si>
+  <si>
+    <t>Accessing.financial.services_A_Q_53_2</t>
+  </si>
+  <si>
+    <t>Opening.a.bank.account_A_Q_53_3</t>
+  </si>
+  <si>
+    <t>Depositing.money.at.a.bank_A_Q_53_4</t>
+  </si>
+  <si>
+    <t>Transferring.money.making.payments.to.someone_A_Q_53_5</t>
+  </si>
+  <si>
+    <t>Withdrawing.cash.from.bank_A_Q_53_6</t>
+  </si>
+  <si>
+    <t>Viewing.your.account.balance_A_Q_53_7</t>
+  </si>
+  <si>
+    <t>Banking.costs_A_Q_53_8</t>
+  </si>
+  <si>
+    <t>A.fixed.term.account_A_Q_53_9</t>
+  </si>
+  <si>
+    <t>Credit.bank.loans_A_Q_53_10</t>
+  </si>
+  <si>
+    <t>Bank.agents_A_Q_53_11</t>
+  </si>
+  <si>
+    <t>Other..specify._A_Q_53_12</t>
+  </si>
+  <si>
+    <t>General.comments..specify._A_Q_53_13</t>
+  </si>
+  <si>
+    <t>C-5 Security/ why use financial services_A_Q_55_1</t>
+  </si>
+  <si>
+    <t>C-5 Accessing financial services_A_Q_55_2</t>
+  </si>
+  <si>
+    <t>C-5 Opening a bank account_A_Q_55_3</t>
+  </si>
+  <si>
+    <t>C-5 Depositing money at a bank_A_Q_55_4</t>
+  </si>
+  <si>
+    <t>C-5 Transferring money/making payment sot someone_A_Q_55_5</t>
+  </si>
+  <si>
+    <t>C-5 Withdrawing cash from bank_A_Q_55_6</t>
+  </si>
+  <si>
+    <t>C-5 Viewing your account balance_A_Q_55_7</t>
+  </si>
+  <si>
+    <t>C-5 Banking costs_A_Q_55_8</t>
+  </si>
+  <si>
+    <t>C-5 A fixed-term account_A_Q_55_9</t>
+  </si>
+  <si>
+    <t>C-5 Credit/bank loans_A_Q_55_10</t>
+  </si>
+  <si>
+    <t>C-5 Bank agents_A_Q_55_11</t>
+  </si>
+  <si>
+    <t>C-5 General comments (specify)_A_Q_55_12</t>
+  </si>
+  <si>
+    <t>C-10 training on a fixed-term account</t>
+  </si>
+  <si>
+    <t>C-10 Training on accessing financial services</t>
+  </si>
+  <si>
+    <t>C-10 Training on bank agents</t>
+  </si>
+  <si>
+    <t>C-10 Training on depositing money at a bank</t>
+  </si>
+  <si>
+    <t>C-10 Training on security/why use financial services</t>
+  </si>
+  <si>
+    <t>C-10 Training on Viewing your account balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-10 Training on withdrawing cash from bank </t>
+  </si>
+  <si>
+    <t>D-1 I now want to talk to you a bit about the support you have received or still do receive from the facilitator.  Beyond the training we spoke about earlier provided by the facilitator on banking, has the NGO/facilitator been involved with your group beyond this training? For example, has the facilitator provided you with any other forms of training?</t>
+  </si>
+  <si>
+    <t>D-1 Support received</t>
+  </si>
+  <si>
+    <t>D-2 Please specify support given</t>
+  </si>
+  <si>
+    <t>D-4 Please specify the assistance</t>
+  </si>
+  <si>
+    <t>D-5 Specify if any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>E-3: Yes...Chairperson.President</t>
+  </si>
+  <si>
+    <t>E-3: Yes...Secretary</t>
+  </si>
+  <si>
+    <t>E-3: Yes...Recordkeeper</t>
+  </si>
+  <si>
+    <t>E-3: Yes...Accountant</t>
+  </si>
+  <si>
+    <t>E-3: Yes...Signatory</t>
+  </si>
+  <si>
+    <t>E-3: Yes...Other..specify.</t>
+  </si>
+  <si>
+    <t>E-3: No..If.selected..all.the.above.responses.will.be.deleted.</t>
+  </si>
+  <si>
+    <t>E-7: Year</t>
+  </si>
+  <si>
+    <t>E-7: Month (optional)</t>
+  </si>
+  <si>
+    <t>E-7: Don’t know</t>
+  </si>
+  <si>
+    <t>E-8: Cost.of.transport..specify.</t>
+  </si>
+  <si>
+    <t>E-8: Bank.fees..specify.</t>
+  </si>
+  <si>
+    <t>E-8: Distance.to.bank..specify.</t>
+  </si>
+  <si>
+    <t>E-8: Availability.of.signatories..specify.</t>
+  </si>
+  <si>
+    <t>E-8: Other..specify.</t>
+  </si>
+  <si>
+    <t>E-9: Walk</t>
+  </si>
+  <si>
+    <t>E-9: Cycle</t>
+  </si>
+  <si>
+    <t>E-9: Moto.Taxi</t>
+  </si>
+  <si>
+    <t>E-9: Taxi</t>
+  </si>
+  <si>
+    <t>E-9: Bus</t>
+  </si>
+  <si>
+    <t>E-9: Own.vehicle</t>
+  </si>
+  <si>
+    <t>E-9: Other..specify.</t>
+  </si>
+  <si>
+    <t>E-9: Not.applicable.never.used.account..If.selected..all.the.above.responses.will.be.deleted.</t>
+  </si>
+  <si>
+    <t>E-9: Don.t.know.remember..If.selected..all.the.above.responses.will.be.deleted.</t>
+  </si>
+  <si>
+    <t>Walk_E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Cycle_E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Moto.Taxi_E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Taxi_E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Bus_E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Own.vehicle_E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Other..specify._E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Not.applicable.never.used.account..If.selected..all.the.above.responses.will.be.deleted._E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>Don.t.know.remember..If.selected..all.the.above.responses.will.be.deleted._E.11.Was.there.a.cost.for.the.groups.associated.with.this.transport....0..</t>
+  </si>
+  <si>
+    <t>E-14 Deposit fees</t>
+  </si>
+  <si>
+    <t>E-14 Withdrawal fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-14 Bank balance fees </t>
+  </si>
+  <si>
+    <t>E-14 Admin fees</t>
+  </si>
+  <si>
+    <t>E-14 Other</t>
+  </si>
+  <si>
+    <t>E-14 Dont know</t>
+  </si>
+  <si>
+    <t>F-1 Please specify the number of shared accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F-3 Do you have an approximate idea how many members have their own bank accounts?</t>
+  </si>
+  <si>
+    <t>F-3 Please specify the actual number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual number </t>
+  </si>
+  <si>
+    <t>G-1 Please specify</t>
+  </si>
+  <si>
+    <t>G-2 Please specify the reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes  </t>
   </si>
 </sst>
 </file>
@@ -12457,6 +12755,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D3" t="s">
+        <v>898</v>
+      </c>
+      <c r="E3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" t="s">
+        <v>895</v>
+      </c>
+      <c r="D4" t="s">
+        <v>899</v>
+      </c>
+      <c r="E4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C5" t="s">
+        <v>896</v>
+      </c>
+      <c r="D5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -16012,4 +16502,2359 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F1" t="s">
+        <v>999</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>483</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="s">
+        <v>623</v>
+      </c>
+      <c r="N2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>803</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>805</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>812</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>745</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>623</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>623</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>745</v>
+      </c>
+      <c r="BE2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BH2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>623</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>623</v>
+      </c>
+      <c r="BK2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="s">
+        <v>625</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>804</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>805</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>810</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>748</v>
+      </c>
+      <c r="BB3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>745</v>
+      </c>
+      <c r="BE3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>817</v>
+      </c>
+      <c r="BG3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>819</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>815</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>823</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>804</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>748</v>
+      </c>
+      <c r="BB4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>745</v>
+      </c>
+      <c r="BE4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BH4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BI4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>824</v>
+      </c>
+      <c r="BK4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>808</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>809</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>810</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>811</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>812</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>813</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>748</v>
+      </c>
+      <c r="BB5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>745</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>826</v>
+      </c>
+      <c r="BF5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>828</v>
+      </c>
+      <c r="BH5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BI5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BJ5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BK5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G2" t="s">
+        <v>837</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I2" t="s">
+        <v>841</v>
+      </c>
+      <c r="J2" t="s">
+        <v>748</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G3" t="s">
+        <v>838</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I3" t="s">
+        <v>842</v>
+      </c>
+      <c r="J3" t="s">
+        <v>748</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E4" t="s">
+        <v>835</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G4" t="s">
+        <v>839</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I4" t="s">
+        <v>843</v>
+      </c>
+      <c r="J4" t="s">
+        <v>748</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G5" t="s">
+        <v>840</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I5" t="s">
+        <v>844</v>
+      </c>
+      <c r="J5" t="s">
+        <v>748</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T1" t="s">
+        <v>535</v>
+      </c>
+      <c r="U1" t="s">
+        <v>537</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>574</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>578</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>586</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>590</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G2" t="s">
+        <v>852</v>
+      </c>
+      <c r="H2" t="s">
+        <v>853</v>
+      </c>
+      <c r="I2" t="s">
+        <v>856</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>860</v>
+      </c>
+      <c r="R2" t="s">
+        <v>861</v>
+      </c>
+      <c r="S2" t="s">
+        <v>702</v>
+      </c>
+      <c r="T2" t="s">
+        <v>669</v>
+      </c>
+      <c r="U2" t="s">
+        <v>862</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>867</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>869</v>
+      </c>
+      <c r="AC2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>772</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>877</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H3" t="s">
+        <v>853</v>
+      </c>
+      <c r="I3" t="s">
+        <v>857</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>860</v>
+      </c>
+      <c r="R3" t="s">
+        <v>861</v>
+      </c>
+      <c r="S3" t="s">
+        <v>702</v>
+      </c>
+      <c r="T3" t="s">
+        <v>670</v>
+      </c>
+      <c r="U3" t="s">
+        <v>863</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>870</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>684</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G4" t="s">
+        <v>684</v>
+      </c>
+      <c r="H4" t="s">
+        <v>854</v>
+      </c>
+      <c r="I4" t="s">
+        <v>858</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>860</v>
+      </c>
+      <c r="R4" t="s">
+        <v>861</v>
+      </c>
+      <c r="S4" t="s">
+        <v>702</v>
+      </c>
+      <c r="T4" t="s">
+        <v>671</v>
+      </c>
+      <c r="U4" t="s">
+        <v>864</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>871</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>684</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G5" t="s">
+        <v>684</v>
+      </c>
+      <c r="H5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I5" t="s">
+        <v>859</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>860</v>
+      </c>
+      <c r="R5" t="s">
+        <v>861</v>
+      </c>
+      <c r="S5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T5" t="s">
+        <v>670</v>
+      </c>
+      <c r="U5" t="s">
+        <v>865</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>872</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>684</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>684</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>878</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>684</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F4" t="s">
+        <v>684</v>
+      </c>
+      <c r="G4" t="s">
+        <v>684</v>
+      </c>
+      <c r="H4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G5" t="s">
+        <v>684</v>
+      </c>
+      <c r="H5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" t="s">
+        <v>879</v>
+      </c>
+      <c r="F2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F3" t="s">
+        <v>884</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D4" t="s">
+        <v>881</v>
+      </c>
+      <c r="E4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>